--- a/biology/Botanique/Parc_de_Serguievka/Parc_de_Serguievka.xlsx
+++ b/biology/Botanique/Parc_de_Serguievka/Parc_de_Serguievka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Serguievka (Сергиевка) est un parc de 110 hectares entourant le palais Leuchtenberg à côté de Peterhof, près de Saint-Pétersbourg en Russie. Il faisait autrefois partie du domaine du même nom du duc Maximilien de Leuchtenberg et de la duchesse, née Marie Nikolaïevna de Russie, fille de l'empereur Nicolas Ier.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine appartient au début du XVIIIe siècle à un diplomate de Pierre le Grand, le boyard Alexandre Roumiantsev. Son fils, le comte Roumiantsev, maréchal-de-camp de l'Empire, en hérite. Le domaine est baptisé du nom de son fils, Serge (1755-1838) (Sergueï en russe moderne, Sergui en russe ancien).
 Les descendants vendent le domaine en 1822 au prince Narychkine qui aménage un grand parc avec des fabriques et des pavillons, ainsi qu'une datcha, grande maison de campagne que l'empereur Nicolas vient visiter. Il en fait l'acquisition ensuite pour sa fille lors de son mariage avec le duc de Leuchtenberg.
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de 110 hectares s'étend au nord jusqu'aux rives du golfe de Finlande. Il est parsemé de petits lacs et d'étangs et traversé par deux petites rivières entre des ravins relativement profonds, le tout avec des ponts et des passerelles. Les deux rivières se réunissent vers le parc d'Orianenbaum.
 Le parc est couvert de bois. Selon l'institut de biologie, 250 types de plantes vasculaires s'y trouvent ainsi que 185 sortes d'oiseaux et 35 sortes de mammifères.
@@ -579,7 +595,9 @@
           <t>Espèces rares</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Champignons :
 Xerocomus badius, bolet bai
@@ -627,7 +645,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
